--- a/scraping_selenium/results/info_youtuber.xlsx
+++ b/scraping_selenium/results/info_youtuber.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,23 +466,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Twilight | ContraPoints</t>
+          <t>Left for dead on Everest | The 1999 Mount Everest Tragedy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=bqloPw5wp48</t>
+          <t>https://www.youtube.com/watch?v=pLWVIsOpkfQ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4300000</v>
+        <v>58000</v>
       </c>
       <c r="E2" t="n">
-        <v>10347</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-03-27 17:20:52</t>
+          <t>2024-08-25 14:11:16</t>
         </is>
       </c>
     </row>
@@ -492,23 +492,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Witch Trials of J.K. Rowling | ContraPoints</t>
+          <t>Divers trapped after tragic mistake | The Waage Drill II Accident</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=EmT0i0xG6zg</t>
+          <t>https://www.youtube.com/watch?v=edjKQua6u0I</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5300000</v>
+        <v>35000</v>
       </c>
       <c r="E3" t="n">
-        <v>6904</v>
+        <v>638</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-08-25 17:20:52</t>
+          <t>2024-08-16 14:11:16</t>
         </is>
       </c>
     </row>
@@ -518,23 +518,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Hunger | ContraPoints</t>
+          <t>Dead end traps cave divers | The Jacob’s Well Diving Tragedy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RTRT794IQBg</t>
+          <t>https://www.youtube.com/watch?v=Fal_E_eJxD4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2800000</v>
+        <v>571000</v>
       </c>
       <c r="E4" t="n">
-        <v>3454</v>
+        <v>669</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-08-25 17:20:52</t>
+          <t>2024-08-07 14:11:16</t>
         </is>
       </c>
     </row>
@@ -544,23 +544,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Envy | ContraPoints</t>
+          <t>Missing 9 months underground | The Veryovkina Cave Tragedy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aPhrTOg1RUk</t>
+          <t>https://www.youtube.com/watch?v=eFOiob7wR5E</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5900000</v>
+        <v>367000</v>
       </c>
       <c r="E5" t="n">
-        <v>6496</v>
+        <v>860</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-08-25 17:20:52</t>
+          <t>2024-07-08 14:11:16</t>
         </is>
       </c>
     </row>
@@ -570,23 +570,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J.K. Rowling | ContraPoints</t>
+          <t>Desperate fight to escape sinking ship | The Jascon-4 Tugboat Accident</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7gDKbT_l2us</t>
+          <t>https://www.youtube.com/watch?v=vxq5qQvaQPI</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7200000</v>
+        <v>73000</v>
       </c>
       <c r="E6" t="n">
-        <v>5385</v>
+        <v>932</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-08-25 17:20:52</t>
+          <t>2024-07-08 14:11:16</t>
         </is>
       </c>
     </row>
@@ -596,23 +596,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Voting | ContraPoints</t>
+          <t>Cave diver trapped forever | The Agen Allwedd Tragedy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=t3Vah8sUFgI</t>
+          <t>https://www.youtube.com/watch?v=rh8uuiUE5JQ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1800000</v>
+        <v>647000</v>
       </c>
       <c r="E7" t="n">
-        <v>1420</v>
+        <v>853</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-08-25 17:20:52</t>
+          <t>2024-06-08 14:11:16</t>
         </is>
       </c>
     </row>
@@ -622,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Justice | ContraPoints</t>
+          <t>Workers trapped in deadly flood | The Sayano Shushenskaya Dam Accident</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=smQsfNw_7V4</t>
+          <t>https://www.youtube.com/watch?v=htxHdI0Si1E</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3000000</v>
+        <v>108000</v>
       </c>
       <c r="E8" t="n">
-        <v>2584</v>
+        <v>674</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-08-25 17:20:52</t>
+          <t>2024-05-09 14:11:16</t>
         </is>
       </c>
     </row>
@@ -648,23 +648,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cringe | ContraPoints</t>
+          <t>Missing 23 days | The Harley Dilly Story</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vRBsaJPkt2Q</t>
+          <t>https://www.youtube.com/watch?v=z0mF4IIh87c</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4500000</v>
+        <v>335000</v>
       </c>
       <c r="E9" t="n">
-        <v>4999</v>
+        <v>519</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2020-08-25 17:20:52</t>
+          <t>2024-05-09 14:11:16</t>
         </is>
       </c>
     </row>
@@ -674,23 +674,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shame | ContraPoints</t>
+          <t>Drowned in a narrow tunnel | Mossdale Cave Tragedy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=K7WvHTl_Q7I</t>
+          <t>https://www.youtube.com/watch?v=FI9jlv6Fug8</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3000000</v>
+        <v>758000</v>
       </c>
       <c r="E10" t="n">
-        <v>2523</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2020-08-25 17:20:52</t>
+          <t>2024-04-09 14:11:17</t>
         </is>
       </c>
     </row>
@@ -700,23 +700,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Canceling | ContraPoints</t>
+          <t>Family time ends in freak accident | The Crooked Swamp Cave Incident</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OjMPJVmXxV8</t>
+          <t>https://www.youtube.com/watch?v=pMYGM2y0fAc</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5700000</v>
+        <v>739000</v>
       </c>
       <c r="E11" t="n">
-        <v>6028</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2020-08-25 17:20:53</t>
+          <t>2024-04-09 14:11:17</t>
         </is>
       </c>
     </row>
@@ -726,23 +726,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Opulence | ContraPoints</t>
+          <t>Dam sucks diver inside | The Lake Oliver Dam Accident</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jD-PbF3ywGo</t>
+          <t>https://www.youtube.com/watch?v=PU23-bGTnkI</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3500000</v>
+        <v>895000</v>
       </c>
       <c r="E12" t="n">
-        <v>2947</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2020-08-25 17:20:53</t>
+          <t>2024-04-09 14:11:17</t>
         </is>
       </c>
     </row>
@@ -752,23 +752,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Men | ContraPoints</t>
+          <t>Cave divers lost deep underground | The Kalimba Cave Tragedy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=S1xxcKCGljY</t>
+          <t>https://www.youtube.com/watch?v=1e0zt8L3yKs</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4400000</v>
+        <v>677000</v>
       </c>
       <c r="E13" t="n">
-        <v>1835</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2024-03-10 14:11:17</t>
         </is>
       </c>
     </row>
@@ -778,23 +778,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Transtrenders" | ContraPoints</t>
+          <t>Cave diver suffers alone for weeks | The Sterkfontein Cave Tragedy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=EdvM_pRfuFM</t>
+          <t>https://www.youtube.com/watch?v=o8xajvLro_8</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3100000</v>
+        <v>813000</v>
       </c>
       <c r="E14" t="n">
-        <v>2084</v>
+        <v>837</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2024-03-10 14:11:17</t>
         </is>
       </c>
     </row>
@@ -804,23 +804,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beauty | ContraPoints</t>
+          <t>Severed lifeline leaves divers trapped at 500 feet | The Wildrake Diving Accident</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=n9mspMJTNEY</t>
+          <t>https://www.youtube.com/watch?v=vZqNgxRj-g0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3400000</v>
+        <v>703000</v>
       </c>
       <c r="E15" t="n">
-        <v>1852</v>
+        <v>1404</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2024-02-09 14:11:17</t>
         </is>
       </c>
     </row>
@@ -830,23 +830,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gender Critical | ContraPoints</t>
+          <t>Fatal mistake costs 192 lives | The Daegu Subway Disaster</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1pTPuoGjQsI</t>
+          <t>https://www.youtube.com/watch?v=blUZoPMllZ4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4099999</v>
+        <v>108000</v>
       </c>
       <c r="E16" t="n">
-        <v>2029</v>
+        <v>634</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2024-01-10 14:11:17</t>
         </is>
       </c>
     </row>
@@ -856,23 +856,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Darkness | ContraPoints</t>
+          <t>Cave diving disaster with 4 minutes of air | The Shaft Sinkhole Diving Tragedy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qtj7LDYaufM</t>
+          <t>https://www.youtube.com/watch?v=C92VmxGv8LM</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2200000</v>
+        <v>910000</v>
       </c>
       <c r="E17" t="n">
-        <v>1762</v>
+        <v>647</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2023-12-11 14:11:17</t>
         </is>
       </c>
     </row>
@@ -882,23 +882,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Are Traps Gay?" | ContraPoints</t>
+          <t>Caver trapped forever | The Nutty Putty Tragedy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PbBzhqJK3bg</t>
+          <t>https://www.youtube.com/watch?v=o-TaF2DbaWw</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3200000</v>
+        <v>9300000</v>
       </c>
       <c r="E18" t="n">
-        <v>2693</v>
+        <v>972</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2023-12-11 14:11:17</t>
         </is>
       </c>
     </row>
@@ -908,23 +908,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Apocalypse | ContraPoints</t>
+          <t>Teen mysteriously goes missing at school | Kendrick Johnson’s Tragic Death</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=S6GodWn4XMM</t>
+          <t>https://www.youtube.com/watch?v=os460t494hY</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1600000</v>
+        <v>123000</v>
       </c>
       <c r="E19" t="n">
-        <v>1492</v>
+        <v>545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2023-11-11 14:11:17</t>
         </is>
       </c>
     </row>
@@ -934,23 +934,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pronouns | ContraPoints</t>
+          <t>5 girls trapped in a game gone WRONG | The Polish Escape Room Tragedy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bbINLWtMKI</t>
+          <t>https://www.youtube.com/watch?v=FlNfafICagA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2900000</v>
+        <v>144000</v>
       </c>
       <c r="E20" t="n">
-        <v>1916</v>
+        <v>396</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2023-11-11 14:11:17</t>
         </is>
       </c>
     </row>
@@ -960,23 +960,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Aesthetic | ContraPoints</t>
+          <t>A cave diver’s fatal mistake | The Goss Canyon Tragedy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=z1afqR5QkDM</t>
+          <t>https://www.youtube.com/watch?v=iP4SAKeVBz4</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1700000</v>
+        <v>411000</v>
       </c>
       <c r="E21" t="n">
-        <v>1283</v>
+        <v>495</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2019-08-26 17:20:53</t>
+          <t>2023-10-12 14:11:17</t>
         </is>
       </c>
     </row>
@@ -986,23 +986,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Incels | ContraPoints</t>
+          <t>Students abandoned on a sinking ship | The Sewol Ferry Accident</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=fD2briZ6fB0</t>
+          <t>https://www.youtube.com/watch?v=uNT-jK2_hNI</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6000000</v>
+        <v>518000</v>
       </c>
       <c r="E22" t="n">
-        <v>2105</v>
+        <v>900</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-10-12 14:11:17</t>
         </is>
       </c>
     </row>
@@ -1012,23 +1012,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The West | ContraPoints</t>
+          <t>Drowned in the Cave of Death | The Gollum Cave Incident</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=hyaftqCORT4</t>
+          <t>https://www.youtube.com/watch?v=SAoVoiZ8MCo</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2300000</v>
+        <v>2400000</v>
       </c>
       <c r="E23" t="n">
-        <v>1412</v>
+        <v>538</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-09-07 14:11:17</t>
         </is>
       </c>
     </row>
@@ -1038,23 +1038,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tiffany Tumbles | ContraPoints</t>
+          <t>Family time in the cockpit kills 75 passengers | The Aeroflot 593 Plane Crash</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j1dJ8whOM8E</t>
+          <t>https://www.youtube.com/watch?v=vO-DfDox6Uk</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2000000</v>
+        <v>1100000</v>
       </c>
       <c r="E24" t="n">
-        <v>1268</v>
+        <v>776</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-09-07 14:11:17</t>
         </is>
       </c>
     </row>
@@ -1064,23 +1064,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jordan Peterson | ContraPoints</t>
+          <t>The heartbreaking timeline of death in a wildfire | The Lahaina Maui fire tragedy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4LqZdkkBDas</t>
+          <t>https://www.youtube.com/watch?v=JrryAXrFSJw</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4600000</v>
+        <v>61000</v>
       </c>
       <c r="E25" t="n">
-        <v>1700</v>
+        <v>493</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-09-07 14:11:17</t>
         </is>
       </c>
     </row>
@@ -1090,23 +1090,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>What's Wrong with Capitalism (Part 2) | ContraPoints</t>
+          <t>Sucked into an oil pipe | The Paria Diving Disaster</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AR7ryg1w_IQ</t>
+          <t>https://www.youtube.com/watch?v=9S7VlIN-f8Q</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
       <c r="E26" t="n">
-        <v>1196</v>
+        <v>911</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-09-07 14:11:17</t>
         </is>
       </c>
     </row>
@@ -1116,179 +1116,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>America: Still Racist | ContraPoints</t>
+          <t>LEAKED TRANSCRIPT! - Heartbreaking last words from Titan sub</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=GWwiUIVpmNY</t>
+          <t>https://www.youtube.com/watch?v=8MlLEkWuyLs</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="E27" t="n">
-        <v>1271</v>
+        <v>586</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Autogynephilia | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=6czRFLs5JQo</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2934</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>What's Wrong with Capitalism (Part 1) | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=gJW4-cOZt8A</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1147</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Violence | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=lmsoVFCUN3Q</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>928000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1163</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Degeneracy | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=9BlNGZunYM8</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>977000</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>The Left | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QuN6GfUix7c</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="E32" t="n">
-        <v>842</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Decrypting the Alt-Right: How to Recognize a F@scist | ContraPoints</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Sx4BVGPkdzk</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2900000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1414</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2018-08-26 17:20:53</t>
+          <t>2023-09-07 14:11:17</t>
         </is>
       </c>
     </row>
